--- a/hw4/week_omega_rank.xlsx
+++ b/hw4/week_omega_rank.xlsx
@@ -400,7 +400,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HGI</t>
+          <t>GDXS</t>
         </is>
       </c>
     </row>
@@ -413,7 +413,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GDXS</t>
+          <t>EDC</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>EDC</t>
+          <t>CRAK</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CRAK</t>
+          <t>KOL</t>
         </is>
       </c>
     </row>
@@ -452,7 +452,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>KOL</t>
+          <t>SOCL</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SOCL</t>
+          <t>SLX</t>
         </is>
       </c>
     </row>
@@ -478,7 +478,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SLX</t>
+          <t>COPX</t>
         </is>
       </c>
     </row>
@@ -491,7 +491,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>COPX</t>
+          <t>PICK</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PICK</t>
+          <t>LIT</t>
         </is>
       </c>
     </row>
@@ -517,7 +517,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LIT</t>
+          <t>SIL</t>
         </is>
       </c>
     </row>
@@ -530,7 +530,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SIL</t>
+          <t>AADR</t>
         </is>
       </c>
     </row>
@@ -543,7 +543,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AADR</t>
+          <t>SLVP</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SLVP</t>
+          <t>FPXI</t>
         </is>
       </c>
     </row>
@@ -569,7 +569,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>FPXI</t>
+          <t>EMGF</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>EMGF</t>
+          <t>FNDE</t>
         </is>
       </c>
     </row>
@@ -595,7 +595,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>FNDE</t>
+          <t>FLN</t>
         </is>
       </c>
     </row>
@@ -608,7 +608,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>FLN</t>
+          <t>EEM</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>EEM</t>
+          <t>IEMG</t>
         </is>
       </c>
     </row>
@@ -634,7 +634,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>IEMG</t>
+          <t>FIEG</t>
         </is>
       </c>
     </row>
@@ -647,7 +647,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>FIEG</t>
+          <t>FONE</t>
         </is>
       </c>
     </row>
@@ -660,7 +660,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>FONE</t>
+          <t>GDXJ</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>GDXJ</t>
+          <t>TLTE</t>
         </is>
       </c>
     </row>
@@ -686,7 +686,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>TLTE</t>
+          <t>VIDI</t>
         </is>
       </c>
     </row>
@@ -699,7 +699,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>VIDI</t>
+          <t>FWDI</t>
         </is>
       </c>
     </row>
@@ -712,7 +712,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>FWDI</t>
+          <t>HEEM</t>
         </is>
       </c>
     </row>
@@ -725,7 +725,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>HEEM</t>
+          <t>FM</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>FM</t>
+          <t>IFV</t>
         </is>
       </c>
     </row>
@@ -751,7 +751,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>IFV</t>
+          <t>QEMM</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>QEMM</t>
+          <t>FPA</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>FPA</t>
+          <t>EMCG</t>
         </is>
       </c>
     </row>
@@ -790,7 +790,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>EMCG</t>
+          <t>EEMS</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>EEMS</t>
+          <t>TLEH</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>TLEH</t>
+          <t>HAWX</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HAWX</t>
+          <t>DBAW</t>
         </is>
       </c>
     </row>
@@ -842,7 +842,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DBAW</t>
+          <t>ECON</t>
         </is>
       </c>
     </row>
@@ -855,7 +855,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ECON</t>
+          <t>IQDF</t>
         </is>
       </c>
     </row>
@@ -868,7 +868,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>IQDF</t>
+          <t>EMFM</t>
         </is>
       </c>
     </row>
@@ -881,7 +881,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>EMFM</t>
+          <t>HILO</t>
         </is>
       </c>
     </row>
@@ -894,7 +894,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>HILO</t>
+          <t>PBD</t>
         </is>
       </c>
     </row>
@@ -907,7 +907,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>PBD</t>
+          <t>SOIL</t>
         </is>
       </c>
     </row>
@@ -920,7 +920,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>SOIL</t>
+          <t>FAN</t>
         </is>
       </c>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>FAN</t>
+          <t>ICLN</t>
         </is>
       </c>
     </row>
@@ -946,7 +946,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ICLN</t>
+          <t>HGI</t>
         </is>
       </c>
     </row>
